--- a/500all/speech_level/speeches_CHRG-114hhrg97426.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97426.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,18 @@
     <t>400047</t>
   </si>
   <si>
-    <t>Robert A. Brady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Madam Chairman. Thank you for holding this meeting. I have a longer statement for the record, but want to underline the important work this Committee does in making sure public funds and other official resources are used properly. I would also like to commend Ms. Lofgren and Mr. Davis for taking the lead on behalf of the Committee on this project.    I very much appreciate the work of the bipartisan staff that has happened here. Their work has produced some overdue changes to our regulations and will give the taxpayers greater transparency on how our tax dollars are spent.    Madam Chairman, I would like to submit my full statement for the record, and thank you again for having this meeting.</t>
   </si>
   <si>
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Chairman Miller.    As Members of Congress, it is our duty to be good stewards with the tax dollars that we are entrusted with. And this internal process, I believe, was to make sure we uphold that duty.    I would like to again thank Chairman Miller, Ranking Member Brady for allowing us to lead this review process. And I want to send a special thanks to my colleague, Ms. Lofgren, who was my partner in this review process. We would not have gotten to this point without everybody's bipartisan cooperation, and my thanks go to each of you.    As a financial administrator for a Member of Congress for 16 years, this is an issue that is personal to me too. These are issues that I faced when I submitted the paperwork that goes throughout the process that we are reviewing today. Ms. Lofgren and I went through a comprehensive review that engaged Members, staff, Member financial administrators, Member office financial administrators, management of the Office of the CAO, various transparency groups, and also the Ethics Committee.    While our review found no broad patterns of abuse or fraud, we did find areas that we can improve on, many of those mentioned in Chairman Miller's opening statements. Specifically, we need to create more transparency. We need to make sure that we improve the way our expenses are disclosed on the quarterly statements of disbursement, updating the regulations and the guidelines of the Member handbook, and providing further clarity and education, jointly with the Ethics Committee, to Members of what the responsible use of the MRA entails.    The House of Representatives is committed to taking the necessary steps to create that transparent system that ensures taxpayer dollars used to perform official and representational duties are being spent responsibly and within the guidelines of our House rules.    I want to remind this Committee and those who are in attendance that the executive and the judicial branches do not have the same expense transparency requirements imposed on themselves. As we are the people's House, with the constitutional authority to control the purse, we hold ourselves to the highest standards to ensure we are responsible with taxpayer money.    The Committee resolution we will vote on shortly is the result of our comprehensive review and will make the necessary changes to fulfill our commitment to a more transparent, accountable, and responsible House. Again, I would like to thank my colleague Zoe Lofgren for being a great partner throughout this process.    And also, in closing, thank you again, Chairman Miller, Ranking Member Brady, for giving me this opportunity to help improve this great institution.    I yield back.    The Chairman. I thank the gentleman for his comments. I would now recognize the gentlelady from California, Congresswoman Zoe Lofgren, for her opening statement.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Madam Chairman.    And thanks also to Mr. Brady for your efforts in getting this review started, and certainly to my colleague, Mr. Davis, who has worked very diligently with me to try and come to a conclusion. We have reviewed a lot of documents, interviewed senior leadership in the CAO's Office, as well as meeting with outside sunshine groups who play a valuable role in looking at the institution, and they all shared proposals with us. We have talked to other Members, House staff about what we could do to improve House operations.    And I think today is a very good start. As we have noticed, there is more work to do. And it is my understanding that the chairwoman is considering holding additional meetings to continue the work of modernizing and reforming the regulations for how Members spend tax dollars, and that is really good news. And I look forward to working with all of my colleagues here on the Committee to make sure that we improve how the House does business.    As Mr. Davis and you have referenced, this is a bipartisan effort. Our Democratic leader sometimes says show a little love. And what that means is let other versions exist. Sometimes you have an idea and another person, but when you really sort through it you can come to a conclusion because you are really trying to get the same thing done. And that is really what this is a product of.    We have put commonsense conditions on the appropriate use of charter aircraft in a way we sorted through the issues so it works, we think, in a way without being bureaucratic to Members who have very rural districts. We have put limits on how Members can use tax dollars to decorate their offices. And as the chairwoman has mentioned, we already have a prohibition on using MRAs for things that are beyond what the House provides. We will find out how that happened in a separate outside review for the one flamboyant instance where that did not occur. But we have emphasized that that is the rule, and the expectation is that we would live with that rule.    We have changed documentation. And I think most importantly, we are going to continue a commitment to transparency by putting office statements of disbursement online in a searchable and sortable format, which gives the data more meaning and the taxpayers additional tools, because the more eyes we have on this, the better off we all are.    Now, I think most Members of Congress, you know, want to play by the rules. The last thing you want is a mess in your office. So we need to be clear on what the rules are so that people can live up to them.    Even though the resolution we are considering has many good changes, I do have one amendment I am going to offer on something we couldn't come to an agreement on, and maybe we can through the amendment process. But I do think this resolution, with the exception of that one amendment, strikes the right balance between giving Members the tools they need and the taxpayers confidence that the tax money is being spent wisely. And I think it was a good process, and I thank the chairwoman for yielding to me.    The Chairman. Thank you very much.    Are there any other members of the Committee that wish to offer an opening statement? Okay.    I will now call before the Committee our first agenda item, Committee Resolution 114. This is a Committee resolution amending the Committee's regulations and to instruct the CAO. Without objection, the first reading of this resolution is dispensed with, and the resolution is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Madam Chair, if I may?    The Chairman. Yes, the gentleman from Florida, former sheriff.</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>412658</t>
   </si>
   <si>
-    <t>Barbara Comstock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Comstock. Thank you.    Madam Chairman, I too appreciate all the hard work that the Committee has done. And I just wanted to recommend, as the Committee is looking through how we can do the sorting and have the transparency that we want and really provide the picture in a better way, Virginia has a system that is called the Virginia--it is vpap.org, is the Web site. It is Access Project. And what it does is it takes all the submissions that we have--this is on the political side, but it would be easily applicable for our MRA--when we submit those documents they are almost immediately able to put them up. And they have a much better sorting system than I have seen on any of the Federal databases that look at our campaign disbursements.    And this is done privately by just a couple of guys. They are privately supported. They are a great resource. And so I would just recommend that the Committee take a look at it. It is vpap.org, v-p-a-p.org. And that Web site is a great model for transparency. Because I know when I put my records in, I actually can see how everything is sorted and how it is spent better than we can do almost ourselves internally. They do it that well.    Thank you.    The Chairman. Very well. Thank you for those comments.    Any other members wish to speak to this amendment? If there are no more comments, we will vote on the gentlelady's amendment. The question is on the amendment offered by the gentlelady to the resolution.    All those in favor of the amendment, signify by saying aye.    All opposed, signify by saying nay.    In the opinion of the chair, the nays have it and the amendment is not agreed to.</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Nay.    The Clerk. Mr. Harper votes nay.    Mr. Nugent?</t>
   </si>
   <si>
@@ -157,9 +139,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. No.    The Clerk. Mr. Walker votes no.    Mr. Brady?</t>
   </si>
   <si>
@@ -170,9 +149,6 @@
   </si>
   <si>
     <t>412522</t>
-  </si>
-  <si>
-    <t>Juan Vargas</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Vargas. Aye.    The Clerk. Mr. Vargas votes aye.    Chairman Miller?    The Chairman. No.    The Clerk. Chairman Miller votes no.    The Chairman. In the opinion of the chair, the nays have it. The amendment is not agreed to.    Are there any other amendments? If not, I would move that the Committee adopt the Committee resolution. The question is on the motion to adopt the resolution.    All those in favor, signify by saying aye.    All those opposed, say nay.    In the opinion of the chair, the ayes have it, the ayes have it, and the motion is agreed to.    Without objection, the motion to reconsider is laid upon the table.    I would ask, first of all, unanimous consent that a joint explanation statement of today's resolution as it relates to the changes to the Member's handbook be entered into the record. Without objection, so ordered.</t>
@@ -583,11 +559,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -607,13 +581,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -633,13 +605,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -661,11 +631,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -685,13 +653,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -711,13 +677,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -737,13 +701,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -763,13 +725,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -789,13 +749,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -815,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -841,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -867,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -893,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -919,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -945,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -971,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -997,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1023,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1049,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1075,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1101,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1127,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1153,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1179,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1207,11 +1135,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1231,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1257,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1283,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1309,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1335,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97426.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97426.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,36 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you, Madam Chairman. Thank you for holding this meeting. I have a longer statement for the record, but want to underline the important work this Committee does in making sure public funds and other official resources are used properly. I would also like to commend Ms. Lofgren and Mr. Davis for taking the lead on behalf of the Committee on this project.    I very much appreciate the work of the bipartisan staff that has happened here. Their work has produced some overdue changes to our regulations and will give the taxpayers greater transparency on how our tax dollars are spent.    Madam Chairman, I would like to submit my full statement for the record, and thank you again for having this meeting.</t>
   </si>
   <si>
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Chairman Miller.    As Members of Congress, it is our duty to be good stewards with the tax dollars that we are entrusted with. And this internal process, I believe, was to make sure we uphold that duty.    I would like to again thank Chairman Miller, Ranking Member Brady for allowing us to lead this review process. And I want to send a special thanks to my colleague, Ms. Lofgren, who was my partner in this review process. We would not have gotten to this point without everybody's bipartisan cooperation, and my thanks go to each of you.    As a financial administrator for a Member of Congress for 16 years, this is an issue that is personal to me too. These are issues that I faced when I submitted the paperwork that goes throughout the process that we are reviewing today. Ms. Lofgren and I went through a comprehensive review that engaged Members, staff, Member financial administrators, Member office financial administrators, management of the Office of the CAO, various transparency groups, and also the Ethics Committee.    While our review found no broad patterns of abuse or fraud, we did find areas that we can improve on, many of those mentioned in Chairman Miller's opening statements. Specifically, we need to create more transparency. We need to make sure that we improve the way our expenses are disclosed on the quarterly statements of disbursement, updating the regulations and the guidelines of the Member handbook, and providing further clarity and education, jointly with the Ethics Committee, to Members of what the responsible use of the MRA entails.    The House of Representatives is committed to taking the necessary steps to create that transparent system that ensures taxpayer dollars used to perform official and representational duties are being spent responsibly and within the guidelines of our House rules.    I want to remind this Committee and those who are in attendance that the executive and the judicial branches do not have the same expense transparency requirements imposed on themselves. As we are the people's House, with the constitutional authority to control the purse, we hold ourselves to the highest standards to ensure we are responsible with taxpayer money.    The Committee resolution we will vote on shortly is the result of our comprehensive review and will make the necessary changes to fulfill our commitment to a more transparent, accountable, and responsible House. Again, I would like to thank my colleague Zoe Lofgren for being a great partner throughout this process.    And also, in closing, thank you again, Chairman Miller, Ranking Member Brady, for giving me this opportunity to help improve this great institution.    I yield back.    The Chairman. I thank the gentleman for his comments. I would now recognize the gentlelady from California, Congresswoman Zoe Lofgren, for her opening statement.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Madam Chairman.    And thanks also to Mr. Brady for your efforts in getting this review started, and certainly to my colleague, Mr. Davis, who has worked very diligently with me to try and come to a conclusion. We have reviewed a lot of documents, interviewed senior leadership in the CAO's Office, as well as meeting with outside sunshine groups who play a valuable role in looking at the institution, and they all shared proposals with us. We have talked to other Members, House staff about what we could do to improve House operations.    And I think today is a very good start. As we have noticed, there is more work to do. And it is my understanding that the chairwoman is considering holding additional meetings to continue the work of modernizing and reforming the regulations for how Members spend tax dollars, and that is really good news. And I look forward to working with all of my colleagues here on the Committee to make sure that we improve how the House does business.    As Mr. Davis and you have referenced, this is a bipartisan effort. Our Democratic leader sometimes says show a little love. And what that means is let other versions exist. Sometimes you have an idea and another person, but when you really sort through it you can come to a conclusion because you are really trying to get the same thing done. And that is really what this is a product of.    We have put commonsense conditions on the appropriate use of charter aircraft in a way we sorted through the issues so it works, we think, in a way without being bureaucratic to Members who have very rural districts. We have put limits on how Members can use tax dollars to decorate their offices. And as the chairwoman has mentioned, we already have a prohibition on using MRAs for things that are beyond what the House provides. We will find out how that happened in a separate outside review for the one flamboyant instance where that did not occur. But we have emphasized that that is the rule, and the expectation is that we would live with that rule.    We have changed documentation. And I think most importantly, we are going to continue a commitment to transparency by putting office statements of disbursement online in a searchable and sortable format, which gives the data more meaning and the taxpayers additional tools, because the more eyes we have on this, the better off we all are.    Now, I think most Members of Congress, you know, want to play by the rules. The last thing you want is a mess in your office. So we need to be clear on what the rules are so that people can live up to them.    Even though the resolution we are considering has many good changes, I do have one amendment I am going to offer on something we couldn't come to an agreement on, and maybe we can through the amendment process. But I do think this resolution, with the exception of that one amendment, strikes the right balance between giving Members the tools they need and the taxpayers confidence that the tax money is being spent wisely. And I think it was a good process, and I thank the chairwoman for yielding to me.    The Chairman. Thank you very much.    Are there any other members of the Committee that wish to offer an opening statement? Okay.    I will now call before the Committee our first agenda item, Committee Resolution 114. This is a Committee resolution amending the Committee's regulations and to instruct the CAO. Without objection, the first reading of this resolution is dispensed with, and the resolution is considered read and open for amendment at any point.</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Madam Chair, if I may?    The Chairman. Yes, the gentleman from Florida, former sheriff.</t>
   </si>
   <si>
@@ -115,6 +142,12 @@
     <t>412658</t>
   </si>
   <si>
+    <t>Comstock</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Comstock. Thank you.    Madam Chairman, I too appreciate all the hard work that the Committee has done. And I just wanted to recommend, as the Committee is looking through how we can do the sorting and have the transparency that we want and really provide the picture in a better way, Virginia has a system that is called the Virginia--it is vpap.org, is the Web site. It is Access Project. And what it does is it takes all the submissions that we have--this is on the political side, but it would be easily applicable for our MRA--when we submit those documents they are almost immediately able to put them up. And they have a much better sorting system than I have seen on any of the Federal databases that look at our campaign disbursements.    And this is done privately by just a couple of guys. They are privately supported. They are a great resource. And so I would just recommend that the Committee take a look at it. It is vpap.org, v-p-a-p.org. And that Web site is a great model for transparency. Because I know when I put my records in, I actually can see how everything is sorted and how it is spent better than we can do almost ourselves internally. They do it that well.    Thank you.    The Chairman. Very well. Thank you for those comments.    Any other members wish to speak to this amendment? If there are no more comments, we will vote on the gentlelady's amendment. The question is on the amendment offered by the gentlelady to the resolution.    All those in favor of the amendment, signify by saying aye.    All opposed, signify by saying nay.    In the opinion of the chair, the nays have it and the amendment is not agreed to.</t>
   </si>
   <si>
@@ -124,6 +157,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Nay.    The Clerk. Mr. Harper votes nay.    Mr. Nugent?</t>
   </si>
   <si>
@@ -139,6 +178,12 @@
     <t>412670</t>
   </si>
   <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walker. No.    The Clerk. Mr. Walker votes no.    Mr. Brady?</t>
   </si>
   <si>
@@ -149,6 +194,12 @@
   </si>
   <si>
     <t>412522</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Juan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Vargas. Aye.    The Clerk. Mr. Vargas votes aye.    Chairman Miller?    The Chairman. No.    The Clerk. Chairman Miller votes no.    The Chairman. In the opinion of the chair, the nays have it. The amendment is not agreed to.    Are there any other amendments? If not, I would move that the Committee adopt the Committee resolution. The question is on the motion to adopt the resolution.    All those in favor, signify by saying aye.    All those opposed, say nay.    In the opinion of the chair, the ayes have it, the ayes have it, and the motion is agreed to.    Without objection, the motion to reconsider is laid upon the table.    I would ask, first of all, unanimous consent that a joint explanation statement of today's resolution as it relates to the changes to the Member's handbook be entered into the record. Without objection, so ordered.</t>
@@ -509,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,725 +590,878 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>21</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+      <c r="H11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
       <c r="H22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G24" t="s">
+        <v>42</v>
+      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>21</v>
+      </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
       <c r="H28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97426.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97426.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brady</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412536</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -560,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,875 +602,968 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
